--- a/data/Triple_Clumped_Combined_Stats.xlsx
+++ b/data/Triple_Clumped_Combined_Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiawei2022/Documents/work/co-author/2025_Guadix_Nicole/Guadix/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD0F1B-B7F2-B544-A2A7-193373C857A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BD9B6-455E-3B4C-876E-B6DA02CC6066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" activeTab="1" xr2:uid="{DE2A821F-0A42-FC4D-8B4B-A821F0EC098F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{DE2A821F-0A42-FC4D-8B4B-A821F0EC098F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,10 @@
       <sheetName val="need_clumped_calibrate"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="3">
           <cell r="G3">
@@ -955,9 +955,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF5A21-7E60-3346-B01A-D0B5EE81BAC7}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4028,7 +4028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B0C488-E7A2-0B4D-8AEF-6B0143712F60}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4304,7 +4304,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
